--- a/sulu-reg/sulu_reg_bom_0806ind.xlsx
+++ b/sulu-reg/sulu_reg_bom_0806ind.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polar\Documents\GitHub\scum-dev-board\sulu-reg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polar\source\repos\scum-dev-board\sulu-reg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D4ECEA-964E-4B43-A6BB-90C033516C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D3743-0E3B-4557-A7F0-AEFF68A38A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61110" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mccoy_bom" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -228,19 +228,16 @@
     <t>10 µF ±20% 10V Ceramic Capacitor X5R 0402 (1005 Metric)</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/tdk-corporation/MLZ1005M2R2WT000/2465140</t>
-  </si>
-  <si>
-    <t>MLZ1005M2R2WT000</t>
-  </si>
-  <si>
     <t>L1, L2</t>
   </si>
   <si>
-    <t>Shielded Multilayer Inductor 550mOhm 0402 (1005 Metric)</t>
-  </si>
-  <si>
-    <t>FIXED IND 2.2UH 350MA 550MOHM SM</t>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/74438343022/4969341</t>
+  </si>
+  <si>
+    <t>2.2 µH Shielded Molded Inductor 1.1 A 270mOhm Max 0806 (2016 Metric)</t>
+  </si>
+  <si>
+    <t>FIXED IND 2.2UH 1.1A 270MOHM SMD</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1100,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,29 +1409,32 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>74438343022</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" t="s">
-        <v>65</v>
+      <c r="H13" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H13" r:id="rId1" xr:uid="{6BF5543E-9324-426E-A05E-DE3C4A577F0B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>